--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/18_Bitlis_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/18_Bitlis_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B56637B-C9EE-412A-8C2A-DA928723A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05191C46-4549-4581-B155-643202CB3371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{06566414-ED59-4343-A1F8-321D450EB79F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{87AC96F9-7AB0-49B3-BF06-11B580A26E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DF797D36-211E-4692-BDE6-F8CFE8B3BDFB}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{25313298-9883-4170-8100-6FE112D80503}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{92273665-730A-4B06-B775-91157D49054F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{BCB900AC-6C2A-4359-A24C-AE6F012D0E88}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{48FE0825-2E76-4E08-A864-E8F6EB976B2A}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{D60DA37A-A62E-4BDB-A3A3-9407472F2532}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0DB35197-E20E-4CCC-A9A5-EEFF719EC6C3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5916B0BC-5FBD-478C-84A6-894EC38160EF}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7DCB48BB-55CF-4A70-B58C-2B31C654C4CA}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{D61A1DE1-DC83-4866-824E-A2992F1E274C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{9442EFF6-3CA2-4CEF-B908-29B10EC737DD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{CC191A35-449E-4E93-95A9-EB882E40F41A}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{ABF24549-58B7-47C6-B6DC-EA14D8053E8F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{A7029ACA-8197-41DF-BD39-83CF9363C68D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF465F-A4AF-4BA8-A901-D4C6072AC51C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA58362B-167B-487D-BC61-016BACDF7669}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2496,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD69E42-313A-4E6A-899E-1D09FB2B1C32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1C164-A58F-4358-A68C-BF7A31291F61}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3703,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4824668-27F2-4BA2-A49C-5FA02E380284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2076C8-194A-4F77-9C16-E1B0E48F6CDB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4910,7 +4910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B00340-3D67-49AE-91B2-D790469988CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36856AE2-9D78-4626-91D0-E43605B0D5DB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6103,7 +6103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F714DE-888A-4ABF-B14C-1F44DEDAA489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BE411A-19FF-4C67-B0B9-9087E515CE30}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7322,7 +7322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57B8C06-BE93-4055-B464-522F72AB5D08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC48361-7392-40FD-9305-FAB7CE9C9670}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8535,7 +8535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F129EDB3-0C0A-4A37-B1BD-EA9D55C9DA81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8427959B-2077-4E63-8FC2-BB9E4B3AA875}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9750,7 +9750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8FF53-B05A-41C2-9E12-219EEA2740D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14399E0-E283-4FB7-8397-39E8D80F7AAA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10965,7 +10965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D8E4E-9260-45F6-951D-A719CB9EB13B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B8894E-9BBD-4F25-8B75-08272208CFA5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12174,7 +12174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC9892-7E2E-4E5B-8CB1-8C24B3654E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09213639-F707-4CC7-9E1E-72E29067678E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13383,7 +13383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2625-BC71-4C3E-907D-087AF24645C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F7F9AF-115A-4990-8A60-6E0C80406FDE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14590,7 +14590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E991EC6-FD57-4430-ACD9-B445278FC959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CBF087-FBDA-4ADC-8B5B-0320CB2951F3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
